--- a/ブログ更新・削除_結合テスト.xlsx
+++ b/ブログ更新・削除_結合テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{700CD451-F681-4982-B98C-048E27F7310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F4CD65B-4E3B-4FC2-8CDA-74E855877BCE}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{700CD451-F681-4982-B98C-048E27F7310D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B091608-77DD-400D-9F54-EC9F331D31A6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="162">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1174,55 +1174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント削除</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント更新</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント削除確認画面の「削除する」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.アカウント削除確認画面で確認</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>更新処理</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -1262,25 +1213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マイページ画面からマイページ更新完了画面</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>どこも変更しなかった場合、「変更はありませんでkした。」の表示</t>
     <rPh sb="3" eb="5">
       <t>ヘンコウ</t>
@@ -1297,32 +1229,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.マイページ画面の「戻る」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント一覧画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.削除されたidでアクセスする</t>
     <rPh sb="2" eb="4">
       <t>サクジョ</t>
@@ -1330,53 +1236,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「指定したアカウントは存在しません。」</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「プロフィール画像」の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「名前（姓）」の表示</t>
-    <rPh sb="9" eb="11">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アクセス権限がありません」</t>
-    <rPh sb="5" eb="7">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.カレンダー画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「変更はありませんでkした。」</t>
   </si>
   <si>
@@ -1390,16 +1249,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.ログインしない状態で、album-info.phpをURLに直打ちする</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>チョクウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>login.phpにリダイレクト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1449,44 +1298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント情報画面からアカウント削除画面</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント削除画面からアカウント削除完了画面</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除フラグ無効</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -2237,6 +2048,223 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ブログ更新画面を空欄にし、「更新」を押す</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、blog-update.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ブログ更新画面の「戻る」を押す</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ブログ情報画面に遷移</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント権限「一般」で、アクセスする</t>
+    <rPh sb="7" eb="9">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「指定したブログは存在しません。」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当ブログの「内容」の表示</t>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー画面に「アクセス権限がありません」</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面が遷移せず、更新ができない</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログ更新画面からブログ更新完了画面</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログ情報画面からブログ削除画面</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブログ削除画面からブログ削除完了画面</t>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ブログ削除確認画面の「削除する」ボタンを押す</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.ブログ削除確認画面で確認</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、blog-delete.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、blog-update-complete.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>チョクウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2326,7 +2354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2351,11 +2379,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="112">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2421,9 +2455,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2432,6 +2463,9 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2440,9 +2474,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2534,6 +2565,199 @@
       </fill>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2891,199 +3115,6 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -3855,7 +3886,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{92EE8A66-26C5-4510-A2C8-79987B9EA570}" name="テーブル214" displayName="テーブル214" ref="A7:I16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{92EE8A66-26C5-4510-A2C8-79987B9EA570}" name="テーブル214" displayName="テーブル214" ref="A7:I17" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9DCC337B-1722-43E3-A699-574A84A90424}" name="項目番号" dataDxfId="111"/>
     <tableColumn id="2" xr3:uid="{96BEEB0E-68A8-40BD-A9A8-77EFC9EC6E0A}" name="大項目" dataDxfId="110"/>
@@ -3872,26 +3903,26 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{58AAC923-C89D-4FA4-8219-AE907CFFC2DC}" name="大項目"/>
     <tableColumn id="3" xr3:uid="{582A2686-E28B-490A-8FA1-112B4B468D7E}" name="列3"/>
     <tableColumn id="4" xr3:uid="{7FF85854-A416-4892-9D1F-7E6D0675F464}" name="確認内容"/>
@@ -3957,17 +3988,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5C116BE8-BD52-4622-83AE-C9FE58B79BBC}" name="テーブル391910" displayName="テーブル391910" ref="A6:I14" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5C116BE8-BD52-4622-83AE-C9FE58B79BBC}" name="テーブル391910" displayName="テーブル391910" ref="A6:I14" headerRowCount="0" totalsRowShown="0" headerRowDxfId="63">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0CAA6E65-0BBF-435B-9B63-8AE15F4E37B1}" name="項目番号" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{BF3BC562-2BB7-4BE9-AF4A-8124F7314F6C}" name="大項目" headerRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{DA21B761-5B7F-470B-B08C-466A5319CBCA}" name="列3" headerRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{31DDA1F7-F201-45E1-AA2B-CD0CE71EC00E}" name="確認内容" headerRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{8FCD30FC-281A-47DB-944C-42F289214FBA}" name="操作手順" headerRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{95926B34-2A62-4024-8C2D-48C9BDDCF4BC}" name="期待値" headerRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{E6F95736-1E63-4377-BDA4-320AF80A8A7E}" name="実施日" headerRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{5CF8AF28-4E64-4EF0-A2A3-E315B7B0DC31}" name="実施結果" headerRowDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{04051A68-6BAF-4AC5-B1F5-CC5082253ABE}" name="備考" headerRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0CAA6E65-0BBF-435B-9B63-8AE15F4E37B1}" name="項目番号" headerRowDxfId="62" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{BF3BC562-2BB7-4BE9-AF4A-8124F7314F6C}" name="大項目" headerRowDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{DA21B761-5B7F-470B-B08C-466A5319CBCA}" name="列3" headerRowDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{31DDA1F7-F201-45E1-AA2B-CD0CE71EC00E}" name="確認内容" headerRowDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{8FCD30FC-281A-47DB-944C-42F289214FBA}" name="操作手順" headerRowDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{95926B34-2A62-4024-8C2D-48C9BDDCF4BC}" name="期待値" headerRowDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{E6F95736-1E63-4377-BDA4-320AF80A8A7E}" name="実施日" headerRowDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{5CF8AF28-4E64-4EF0-A2A3-E315B7B0DC31}" name="実施結果" headerRowDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{04051A68-6BAF-4AC5-B1F5-CC5082253ABE}" name="備考" headerRowDxfId="53"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3976,32 +4007,32 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I16" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A17:I21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A17:I21" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="53" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="42" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="33"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4010,32 +4041,32 @@
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{85F965DE-BFE9-44A1-8203-9C97445D195F}" name="テーブル22" displayName="テーブル22" ref="A7:I18" totalsRowShown="0">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{84BC7C03-E61B-4DB8-B7AE-138618AEC460}" name="項目番号" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{AC644582-1705-406E-A11E-3C58BE1ECDE0}" name="大項目" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{C4C821FC-9093-447B-86B8-BB896CE8F6DB}" name="列3" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{D8AC028C-A000-4B31-A70E-88EC32F4D447}" name="確認内容" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{1FF0C9C1-F0B2-4FD8-A9CF-CFDD64854E64}" name="操作手順" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{81648DCB-DB01-4FD5-9CFA-D77908665B9D}" name="期待値" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{10F904F3-2194-4F9F-A698-2181ECC170AD}" name="実施日" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{7EFBFD49-13DA-4D47-A1FA-7E8A935D999D}" name="実施結果" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{80D23A8A-0805-43E8-8AAE-F8081DCA6D65}" name="備考" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{84BC7C03-E61B-4DB8-B7AE-138618AEC460}" name="項目番号" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{AC644582-1705-406E-A11E-3C58BE1ECDE0}" name="大項目" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{C4C821FC-9093-447B-86B8-BB896CE8F6DB}" name="列3" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{D8AC028C-A000-4B31-A70E-88EC32F4D447}" name="確認内容" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{1FF0C9C1-F0B2-4FD8-A9CF-CFDD64854E64}" name="操作手順" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{81648DCB-DB01-4FD5-9CFA-D77908665B9D}" name="期待値" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{10F904F3-2194-4F9F-A698-2181ECC170AD}" name="実施日" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{7EFBFD49-13DA-4D47-A1FA-7E8A935D999D}" name="実施結果" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{80D23A8A-0805-43E8-8AAE-F8081DCA6D65}" name="備考" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8885EC80-C68E-49F5-AA88-0D5EBA1B9A5F}" name="テーブル36" displayName="テーブル36" ref="A19:I23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8885EC80-C68E-49F5-AA88-0D5EBA1B9A5F}" name="テーブル36" displayName="テーブル36" ref="A19:I23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{44B60D83-9DED-4A84-80F6-304225BEA51A}" name="項目番号" headerRowDxfId="33" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{60366696-D3C5-417F-8E0F-725BE34DF397}" name="大項目" headerRowDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{2FF70B6E-A1B8-4571-9F44-DA2874BA52C0}" name="列3" headerRowDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{2AF3E51B-1DEA-465B-AFB0-BC6CB20E4F44}" name="確認内容" headerRowDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{CE779E91-8182-4A55-964C-59E625B68FEE}" name="操作手順" headerRowDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{19FE0ED1-C435-4CF2-B709-38DDBFFA50B3}" name="期待値" headerRowDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{5F56DDBD-AA59-45E6-9ED6-24DE4A4877DA}" name="実施日" headerRowDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{9C469927-D3B8-410F-B2F7-D7539C40E943}" name="実施結果" headerRowDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{EB9A54D9-A5F0-434E-A61C-046044F13017}" name="備考" headerRowDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{44B60D83-9DED-4A84-80F6-304225BEA51A}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{60366696-D3C5-417F-8E0F-725BE34DF397}" name="大項目" headerRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{2FF70B6E-A1B8-4571-9F44-DA2874BA52C0}" name="列3" headerRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{2AF3E51B-1DEA-465B-AFB0-BC6CB20E4F44}" name="確認内容" headerRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{CE779E91-8182-4A55-964C-59E625B68FEE}" name="操作手順" headerRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{19FE0ED1-C435-4CF2-B709-38DDBFFA50B3}" name="期待値" headerRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{5F56DDBD-AA59-45E6-9ED6-24DE4A4877DA}" name="実施日" headerRowDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{9C469927-D3B8-410F-B2F7-D7539C40E943}" name="実施結果" headerRowDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{EB9A54D9-A5F0-434E-A61C-046044F13017}" name="備考" headerRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4360,8 +4391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A77DA8-5F4F-404D-8533-BC9C291EE38F}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4372,7 +4403,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4385,7 +4416,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4412,12 +4443,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4458,16 +4489,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G8" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -4480,7 +4511,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4507,16 +4538,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="G11" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -4529,7 +4560,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -4556,16 +4587,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="G14" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -4578,7 +4609,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4586,24 +4617,38 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4622,23 +4667,23 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="G19" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>73</v>
@@ -4657,20 +4702,28 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="G21" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4679,7 +4732,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4687,20 +4740,28 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="2">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="G23" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4708,9 +4769,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -4718,23 +4777,23 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="4">
-        <v>45991</v>
+        <v>87</v>
+      </c>
+      <c r="G25" s="3">
+        <v>46002</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>73</v>
@@ -4769,8 +4828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C3A01A-A4F6-4174-8DBC-8BCF35A1EEEB}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4781,7 +4840,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4794,7 +4853,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4821,12 +4880,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4859,22 +4918,24 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G8" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -4887,7 +4948,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -4896,23 +4957,23 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G10" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -4925,7 +4986,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4934,23 +4995,23 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G12" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>73</v>
@@ -4963,7 +5024,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4972,23 +5033,23 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G14" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -5001,7 +5062,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5010,23 +5071,23 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G16" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -5039,7 +5100,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5048,23 +5109,23 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45991</v>
+        <v>87</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46002</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -5100,7 +5161,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5111,7 +5172,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5124,7 +5185,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5151,12 +5212,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5197,16 +5258,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G11" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5219,7 +5280,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5235,16 +5296,16 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G13" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -5257,7 +5318,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -5273,16 +5334,16 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G15" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>73</v>
@@ -5316,8 +5377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5328,7 +5389,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5341,7 +5402,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5368,12 +5429,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5414,16 +5475,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G8" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -5436,7 +5497,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5463,16 +5524,16 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G11" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5485,7 +5546,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5512,16 +5573,16 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G14" s="3">
-        <v>45827</v>
+        <v>46002</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>73</v>
@@ -5534,7 +5595,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -5554,23 +5615,23 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="4">
-        <v>45991</v>
+        <v>87</v>
+      </c>
+      <c r="G17" s="3">
+        <v>46002</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -5605,8 +5666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE28EAC-04E1-4652-A59F-FBA9EA2DB96E}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5617,7 +5678,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5630,7 +5691,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5657,12 +5718,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5703,16 +5764,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="3">
-        <v>45827</v>
+        <v>121</v>
+      </c>
+      <c r="G8" s="4">
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -5725,7 +5786,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5738,7 +5799,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -5747,23 +5808,23 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="3">
-        <v>45827</v>
+        <v>120</v>
+      </c>
+      <c r="G11" s="4">
+        <v>46002</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>73</v>
@@ -5776,7 +5837,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -5789,7 +5850,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5798,23 +5859,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="G14" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5830,23 +5895,27 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="G16" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5855,7 +5924,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -5868,7 +5937,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -5876,29 +5945,37 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E19" t="s">
-        <v>146</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G20" s="4">
-        <v>45991</v>
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
